--- a/experiment_results.xlsx
+++ b/experiment_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/butyuhao/Documents/Github/advancedAI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F0E39437-7589-3A40-BC8A-F57045F4F1EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53FA30CE-12B5-8746-9EE6-84EB1E7A9C50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14540" yWindow="5700" windowWidth="28240" windowHeight="17440" xr2:uid="{82771E98-FCB7-7448-A75E-B8A91BE2F3EF}"/>
+    <workbookView xWindow="10160" yWindow="4160" windowWidth="28240" windowHeight="17440" xr2:uid="{82771E98-FCB7-7448-A75E-B8A91BE2F3EF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>balanced_data</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -36,6 +36,18 @@
   </si>
   <si>
     <t>best_f1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50_300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50_50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Focal_loss</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -400,10 +412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C65AC4C2-55E5-C74F-BB83-5FA92CFDC4C1}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -427,6 +439,39 @@
         <v>0.90347200000000005</v>
       </c>
     </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>0.723333</v>
+      </c>
+      <c r="C3">
+        <v>0.786694</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>0.74166699999999997</v>
+      </c>
+      <c r="C4">
+        <v>0.79011399999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>0.76</v>
+      </c>
+      <c r="C5">
+        <v>0.81431100000000001</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/experiment_results.xlsx
+++ b/experiment_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/butyuhao/Documents/Github/advancedAI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53FA30CE-12B5-8746-9EE6-84EB1E7A9C50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDE9E714-AA3D-2244-8F2B-6674B3918B95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10160" yWindow="4160" windowWidth="28240" windowHeight="17440" xr2:uid="{82771E98-FCB7-7448-A75E-B8A91BE2F3EF}"/>
+    <workbookView xWindow="14460" yWindow="6220" windowWidth="28240" windowHeight="17440" xr2:uid="{82771E98-FCB7-7448-A75E-B8A91BE2F3EF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -415,7 +415,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -466,10 +466,10 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>0.76</v>
+        <v>0.75666699999999998</v>
       </c>
       <c r="C5">
-        <v>0.81431100000000001</v>
+        <v>0.82063600000000003</v>
       </c>
     </row>
   </sheetData>

--- a/experiment_results.xlsx
+++ b/experiment_results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/butyuhao/Documents/Github/advancedAI/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\advancedAI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDE9E714-AA3D-2244-8F2B-6674B3918B95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80132620-C3C9-464D-8B49-0DE2C6062795}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14460" yWindow="6220" windowWidth="28240" windowHeight="17440" xr2:uid="{82771E98-FCB7-7448-A75E-B8A91BE2F3EF}"/>
+    <workbookView xWindow="-28920" yWindow="15945" windowWidth="29040" windowHeight="15840" xr2:uid="{82771E98-FCB7-7448-A75E-B8A91BE2F3EF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>balanced_data</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,6 +48,10 @@
   </si>
   <si>
     <t>Focal_loss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>human50-300</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -55,7 +59,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -412,15 +416,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C65AC4C2-55E5-C74F-BB83-5FA92CFDC4C1}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="15" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
         <v>1</v>
       </c>
@@ -428,7 +432,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -439,7 +443,7 @@
         <v>0.90347200000000005</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -450,7 +454,7 @@
         <v>0.786694</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -461,7 +465,7 @@
         <v>0.79011399999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -470,10 +474,22 @@
       </c>
       <c r="C5">
         <v>0.82063600000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>0.81499999999999995</v>
+      </c>
+      <c r="C6">
+        <v>0.89500000000000002</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/experiment_results.xlsx
+++ b/experiment_results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/butyuhao/Documents/Github/advancedAI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDE9E714-AA3D-2244-8F2B-6674B3918B95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{149778D7-ECD2-5B43-A152-19C734CE6BC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14460" yWindow="6220" windowWidth="28240" windowHeight="17440" xr2:uid="{82771E98-FCB7-7448-A75E-B8A91BE2F3EF}"/>
+    <workbookView xWindow="5220" yWindow="21600" windowWidth="28800" windowHeight="16800" xr2:uid="{82771E98-FCB7-7448-A75E-B8A91BE2F3EF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>balanced_data</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,6 +48,14 @@
   </si>
   <si>
     <t>Focal_loss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resnet50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>efficient_net</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -412,23 +420,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C65AC4C2-55E5-C74F-BB83-5FA92CFDC4C1}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="F7" sqref="D7:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -438,8 +458,14 @@
       <c r="C2">
         <v>0.90347200000000005</v>
       </c>
+      <c r="E2">
+        <v>0.79333299999999995</v>
+      </c>
+      <c r="F2">
+        <v>0.81598099999999996</v>
+      </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -449,8 +475,14 @@
       <c r="C3">
         <v>0.786694</v>
       </c>
+      <c r="E3">
+        <v>0.68666700000000003</v>
+      </c>
+      <c r="F3">
+        <v>0.78551599999999999</v>
+      </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -460,8 +492,14 @@
       <c r="C4">
         <v>0.79011399999999998</v>
       </c>
+      <c r="E4">
+        <v>0.77833300000000005</v>
+      </c>
+      <c r="F4">
+        <v>0.81824600000000003</v>
+      </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -470,6 +508,12 @@
       </c>
       <c r="C5">
         <v>0.82063600000000003</v>
+      </c>
+      <c r="E5">
+        <v>0.72</v>
+      </c>
+      <c r="F5">
+        <v>0.79602399999999995</v>
       </c>
     </row>
   </sheetData>
